--- a/story/Activity Story 活动剧情/act17d0 Operation Originium Dust 源石尘行动/level_act17d0_08_beg.xlsx
+++ b/story/Activity Story 活动剧情/act17d0 Operation Originium Dust 源石尘行动/level_act17d0_08_beg.xlsx
@@ -1548,7 +1548,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Blitz"]알겠습니다.
+    <t xml:space="preserve">[name="Blitz"]알았어.
 </t>
   </si>
   <si>
@@ -1760,7 +1760,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ash"]휴…
+    <t xml:space="preserve">[name="Ash"]후우……
 </t>
   </si>
   <si>
